--- a/Individual_ProjectLevel_Contibution_ProgressSheet.xlsx
+++ b/Individual_ProjectLevel_Contibution_ProgressSheet.xlsx
@@ -20,7 +20,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D11">
+    <comment authorId="0" ref="D12">
       <text>
         <t xml:space="preserve">ResponseEntity&lt;ResponseMessage&gt; uploadFile(@RequestParam("file") MultipartFile file)</t>
       </text>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="76">
   <si>
     <t>Task</t>
   </si>
@@ -65,6 +65,12 @@
     <t>Preyashi</t>
   </si>
   <si>
+    <t>Architecture Diagram</t>
+  </si>
+  <si>
+    <t>Shivasai</t>
+  </si>
+  <si>
     <t>Cohort 1 repo</t>
   </si>
   <si>
@@ -113,9 +119,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>remarks</t>
-  </si>
-  <si>
     <t>Architecture diagram</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
     <t>31/08/2020</t>
   </si>
   <si>
-    <t>Update correction</t>
-  </si>
-  <si>
     <t>sequence diagram</t>
   </si>
   <si>
@@ -182,10 +182,10 @@
     <t>postman screenshots</t>
   </si>
   <si>
-    <t>entity names(make sure they are private)</t>
-  </si>
-  <si>
-    <t>api controller methods</t>
+    <t xml:space="preserve">Microservice 4 </t>
+  </si>
+  <si>
+    <t>Sowmya and Amlan</t>
   </si>
   <si>
     <t>amlan</t>
@@ -209,164 +209,62 @@
     <t>not clear</t>
   </si>
   <si>
-    <t>sowmya,amlan</t>
-  </si>
-  <si>
-    <t>User{
--userId : long
--userName : String
--password : String
--isAdmin : boolean
--email: String
--verified : boolean }</t>
-  </si>
-  <si>
-    <t>amlan,sowmya</t>
-  </si>
-  <si>
-    <t>methods {
-+ String login(String Username, String password) 
-+ String addUser (String Username, String password, String email, boolean isAdmin) 
-+ String update(String username, String password, String email) }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microservice 4 </t>
-  </si>
-  <si>
-    <t>sowmya and amlan</t>
-  </si>
-  <si>
     <t>Microservice 5</t>
   </si>
   <si>
-    <t xml:space="preserve">- stockExchangeId : int
-- stockExchange : string
-- brief : string
-- contactAddress : string
-- remarks : string
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + List&lt;StockExchange&gt; getAllStockExchanges() 
- + StockExchange getStockExchange (Integer id)
- + void  addStockExchange (StockExchange stockExchange)
- + void deleteStockExchange (Integer id)
- + List&lt;Company&gt; getAllCompaniesList (Integer id)
-</t>
-  </si>
-  <si>
-    <t>-long companyStockPriceId
--double companyCode
--String stockExchange
--double currentPrice
--Date stockPriceDate
--String stockPriceTime</t>
-  </si>
-  <si>
-    <t>click here</t>
-  </si>
-  <si>
-    <t>Controller method, just one: List&lt;StockPriceExcelEntity&gt; uploadFile()</t>
-  </si>
-  <si>
-    <t>Contoller class name:</t>
-  </si>
-  <si>
-    <t>StockPriceController</t>
-  </si>
-  <si>
-    <t>Response class:</t>
-  </si>
-  <si>
-    <t>Response message</t>
-  </si>
-  <si>
-    <t>Service name:</t>
-  </si>
-  <si>
-    <t>StockPriceService</t>
-  </si>
-  <si>
-    <t>just the name of the controller function is enough.. :)</t>
-  </si>
-  <si>
-    <t>Service helper class name:</t>
-  </si>
-  <si>
-    <t>ServiceHelperReadExcel</t>
-  </si>
-  <si>
-    <t>example: List&lt;Compnay&gt; getAllCompanyDetails(Date date)</t>
-  </si>
-  <si>
-    <t>Entity name:</t>
-  </si>
-  <si>
-    <t>StockPriceEntity</t>
-  </si>
-  <si>
-    <t>/getallcompany/</t>
-  </si>
-  <si>
-    <t>Repository interface:</t>
-  </si>
-  <si>
-    <t>StockPriceRepository</t>
-  </si>
-  <si>
-    <t>/comapny/1</t>
-  </si>
-  <si>
-    <t>List&lt;StockPriceExcelEntity&gt;, no input parameter</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Postman screenshots</t>
+  </si>
+  <si>
+    <t>Action (Milestone 1)</t>
+  </si>
+  <si>
+    <t>Siddhanth</t>
+  </si>
+  <si>
+    <t>Arnapurna</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>Microservice 1 Basic Fuctioning code</t>
   </si>
   <si>
     <t>Ashish</t>
   </si>
   <si>
-    <t>3st</t>
-  </si>
-  <si>
-    <t>sectorName : String</t>
-  </si>
-  <si>
-    <t>sectorId : Long</t>
-  </si>
-  <si>
-    <t>sectorBrief : String</t>
-  </si>
-  <si>
-    <t>public List&lt;Sector&gt; getAllSectors()</t>
-  </si>
-  <si>
-    <t>public List&lt;String&gt; getSector()</t>
-  </si>
-  <si>
-    <t>public void addSector()</t>
-  </si>
-  <si>
-    <t>public String deleteSector()</t>
-  </si>
-  <si>
-    <t>public List&lt;Stock&gt; getStocks()</t>
-  </si>
-  <si>
-    <t>public List&lt;Company&gt; getCompany()</t>
-  </si>
-  <si>
-    <t>public String getPrice()</t>
-  </si>
-  <si>
-    <t>public List&lt;String&gt; getFromToPrice()</t>
-  </si>
-  <si>
-    <t>public String getPeriodPrice()</t>
+    <t>31/8/20</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Ishaan</t>
+  </si>
+  <si>
+    <t>Api Controller methods</t>
+  </si>
+  <si>
+    <t>Ashish and Ishaan</t>
+  </si>
+  <si>
+    <t>sectors(get/add/delete)</t>
+  </si>
+  <si>
+    <t>functionality with other microservices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -387,6 +285,17 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -443,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -459,6 +368,9 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -487,11 +399,14 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -499,16 +414,32 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -799,133 +730,136 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="6" t="s">
@@ -934,7 +868,7 @@
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
@@ -943,70 +877,70 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
     </row>
     <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
@@ -1015,78 +949,78 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15" t="s">
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
     </row>
     <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C24" s="10"/>
       <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="3" t="s">
@@ -1095,16 +1029,16 @@
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
@@ -1112,46 +1046,50 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="17"/>
-      <c r="B28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15" t="s">
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
     </row>
     <row r="30">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="4"/>
     </row>
     <row r="31">
@@ -6049,12 +5987,17 @@
       <c r="B1009" s="4"/>
       <c r="C1009" s="4"/>
     </row>
+    <row r="1010">
+      <c r="A1010" s="4"/>
+      <c r="B1010" s="4"/>
+      <c r="C1010" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6074,226 +6017,220 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="20" t="s">
         <v>27</v>
       </c>
+      <c r="F1" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>1.0</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20">
+      <c r="A4" s="21">
         <v>3.0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20">
+      <c r="A5" s="21">
         <v>4.0</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20">
+      <c r="A6" s="21">
         <v>5.0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="20">
+      <c r="A7" s="21">
         <v>6.0</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="20">
+      <c r="A8" s="21">
         <v>7.0</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="20">
+      <c r="A9" s="21">
         <v>8.0</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="20">
+      <c r="A10" s="21">
         <v>9.0</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="20">
+      <c r="A11" s="21">
         <v>10.0</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="20">
+      <c r="A12" s="21">
         <v>11.0</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6304,38 +6241,22 @@
       <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>6</v>
-      </c>
+      <c r="F14" s="24"/>
     </row>
     <row r="15">
-      <c r="A15" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>6</v>
-      </c>
+      <c r="F15" s="24"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6359,376 +6280,351 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>27</v>
       </c>
+      <c r="F1" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="20">
+      <c r="A2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="21">
         <v>1.0</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F4" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="20">
+    <row r="5">
+      <c r="A5" s="21">
         <v>2.0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F5" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="20">
+    <row r="6">
+      <c r="A6" s="21">
         <v>3.0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F6" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="20">
+    <row r="7">
+      <c r="A7" s="21">
         <v>4.0</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="20">
+    <row r="8">
+      <c r="A8" s="21">
         <v>5.0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C8" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="20">
+    <row r="9">
+      <c r="A9" s="21">
         <v>6.0</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F9" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="20">
+    <row r="10">
+      <c r="A10" s="21">
         <v>7.0</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="20">
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="21">
         <v>8.0</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="21">
         <v>9.0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F12" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="6" t="s">
+    <row r="14">
+      <c r="B14" s="6"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="C15" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="6" t="s">
+    <row r="18">
+      <c r="A18" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="6"/>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="6"/>
-      <c r="C16" s="23"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>28</v>
+      <c r="A19" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E19" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="20">
-        <v>2.0</v>
+      <c r="A20" s="21">
+        <v>4.0</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>55</v>
+      <c r="A21" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E21" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="F21" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>36</v>
+      <c r="A22" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="20">
-        <v>6.0</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>45</v>
+      <c r="A23" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E23" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="F23" s="6" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="20">
-        <v>7.0</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>47</v>
+      <c r="A24" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="20">
-        <v>9.0</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="E25" s="24"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6745,239 +6641,204 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="37.57"/>
-    <col customWidth="1" min="3" max="3" width="25.43"/>
-    <col customWidth="1" min="4" max="4" width="27.86"/>
-    <col customWidth="1" min="5" max="5" width="29.86"/>
-    <col customWidth="1" min="6" max="6" width="25.57"/>
-    <col customWidth="1" min="7" max="7" width="28.0"/>
+    <col customWidth="1" min="2" max="2" width="33.0"/>
+    <col customWidth="1" min="3" max="3" width="17.14"/>
+    <col customWidth="1" min="4" max="4" width="13.0"/>
+    <col customWidth="1" min="5" max="5" width="17.86"/>
+    <col customWidth="1" min="6" max="6" width="12.14"/>
+    <col customWidth="1" min="7" max="7" width="11.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>27</v>
       </c>
+      <c r="F1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="29"/>
     </row>
     <row r="2">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>1.0</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
+      <c r="B2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20">
+      <c r="A3" s="21">
         <v>2.0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22" t="s">
+      <c r="C3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20">
+      <c r="A4" s="21">
         <v>3.0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="C4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20">
+      <c r="A5" s="21">
         <v>4.0</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22" t="s">
+      <c r="C5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20">
+      <c r="A6" s="21">
         <v>6.0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="C6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="20">
+      <c r="A7" s="21">
         <v>7.0</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="20">
+      <c r="A8" s="21">
         <v>8.0</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="C8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="20">
+      <c r="A9" s="21">
         <v>9.0</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22" t="s">
+      <c r="C9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" ht="24.75" customHeight="1">
-      <c r="D12" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
+      <c r="A10" s="31">
+        <v>10.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="32"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" ht="24.75" customHeight="1"/>
     <row r="16">
-      <c r="C16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="D16" s="33"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -7001,250 +6862,222 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>27</v>
       </c>
+      <c r="F1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="29"/>
     </row>
     <row r="2">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>1.0</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="20">
+      <c r="A3" s="21">
         <v>2.0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="21"/>
+      <c r="C3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="20">
+      <c r="A4" s="21">
         <v>3.0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="C4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="20">
+      <c r="A5" s="21">
         <v>4.0</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="21"/>
+      <c r="C5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="20">
+      <c r="A6" s="31">
         <v>5.0</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="20">
+      <c r="A7" s="31">
         <v>6.0</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="20">
+      <c r="A8" s="31">
         <v>7.0</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="21"/>
+      <c r="B8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="20">
+      <c r="A9" s="31">
         <v>8.0</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="20">
+      <c r="A10" s="31">
         <v>9.0</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="21"/>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="20">
+      <c r="A11" s="31">
         <v>10.0</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="B11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="20">
+      <c r="A12" s="3">
         <v>11.0</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" s="6" t="s">
-        <v>101</v>
+      <c r="B12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
